--- a/data/trans_camb/P25A_12_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_12_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>47,94</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>46,14</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47,06</t>
+          <t>5,14</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,27</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 2,53</t>
+          <t>-2,9; 3,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,79</t>
+          <t>-3,78; 2,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,0; 61,13</t>
+          <t>-2,04; 4,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 3,03</t>
+          <t>-1,74; 4,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,14</t>
+          <t>-0,28; 4,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,79; 54,43</t>
+          <t>-2,26; 2,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,02</t>
+          <t>-1,53; 3,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,9</t>
+          <t>0,19; 5,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,32; 53,75</t>
+          <t>1,88; 8,7</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 6,33</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 2,1</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 1,87</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 4,22</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 5,53</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 4,51</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,57%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,13%</t>
+          <t>-5,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1119,71%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>40,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>721,43%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>48,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>874,19%</t>
+          <t>53,28%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27,51%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>41,18%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>42,06%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>31,5%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,1; 89,98</t>
+          <t>-48,53; 113,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,43; 59,82</t>
+          <t>-60,44; 68,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>524,52; 1952,71</t>
+          <t>-32,8; 137,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 59,16</t>
+          <t>-24,6; 102,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 64,66</t>
+          <t>-6,4; 114,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>495,99; 1047,77</t>
+          <t>-28,94; 51,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,81; 46,45</t>
+          <t>-19,84; 65,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,34; 41,96</t>
+          <t>4,36; 116,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>610,25; 1196,42</t>
+          <t>16,29; 113,94</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 63,35</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-27,87; 45,07</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-25,84; 41,16</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 88,13</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>9,44; 87,45</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,83; 58,99</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>61,37</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>53,68</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>56,91</t>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,02</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,35</t>
+          <t>-0,93; 3,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,73</t>
+          <t>-1,14; 3,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,94; 83,72</t>
+          <t>0,45; 4,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 4,27</t>
+          <t>-1,64; 5,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 2,89</t>
+          <t>-0,06; 7,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>37,75; 67,34</t>
+          <t>-4,31; 3,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,93</t>
+          <t>-4,5; 3,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,26</t>
+          <t>0,92; 9,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>42,47; 68,57</t>
+          <t>-5,39; 5,64</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; 8,02</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 2,62</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 2,69</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 6,35</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 4,21</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 6,12</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>58,3%</t>
+          <t>50,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42,43%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2875,52%</t>
+          <t>115,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>40,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,26%</t>
+          <t>121,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>688,21%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>-7,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>65,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1142,14%</t>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,74%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>75,9%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9,42%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>30,74%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 255,63</t>
+          <t>-32,61; 231,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,39; 213,87</t>
+          <t>-36,98; 253,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1210,56; 6057,42</t>
+          <t>6,6; 342,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 76,03</t>
+          <t>-31,16; 154,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,33; 50,37</t>
+          <t>-9,92; 407,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>402,4; 1075,68</t>
+          <t>-39,67; 52,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 75,66</t>
+          <t>-43,05; 57,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,34; 55,9</t>
+          <t>3,78; 144,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>756,77; 1770,21</t>
+          <t>-34,36; 51,55</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-35,85; 84,58</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-26,83; 66,91</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-33,54; 62,47</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>16,6; 156,19</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-23,94; 50,01</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-19,54; 104,38</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>3,96</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 5,82</t>
+          <t>-4,03; 6,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 4,12</t>
+          <t>-5,34; 3,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-4,08; 6,43</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 6,83</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 6,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-1,32; 9,67</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 9,17</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 9,82</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-4,71; 4,52</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-5,69; 3,39</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 6,02</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 4,9</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 6,97</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,29%</t>
+          <t>-10,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>26,87%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,42%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>75,37%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>57,74%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>69,27%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>9,41%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-6,45%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>50,36%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>28,65%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>51,26%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-76,26; 436,7</t>
+          <t>-72,83; 494,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-82,72; 350,3</t>
+          <t>-86,9; 223,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-76,7; 490,69</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-64,02; 151,25</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,09; 154,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-23,83; 330,65</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-33,16; 310,58</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-35,65; 316,62</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-50,78; 117,0</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-60,64; 87,28</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-29,38; 201,37</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-43,33; 165,65</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-32,05; 211,16</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>0,54</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>50,42</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>47,21</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>48,92</t>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,25</t>
+          <t>-1,12; 2,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,71</t>
+          <t>-1,54; 1,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>38,26; 61,53</t>
+          <t>0,07; 3,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,24</t>
+          <t>-0,36; 4,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,08</t>
+          <t>0,51; 4,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,45; 54,26</t>
+          <t>-1,39; 2,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,78</t>
+          <t>-1,48; 2,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,31</t>
+          <t>1,86; 6,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>43,08; 54,7</t>
+          <t>0,46; 6,09</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 5,78</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 2,05</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 1,72</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 4,75</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 4,44</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 4,4</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1514,08%</t>
+          <t>51,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>53,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>655,67%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>57,82%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>922,1%</t>
+          <t>30,8%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>22,57%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>11,63%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>55,79%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>31,19%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>31,3%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 87,23</t>
+          <t>-25,85; 90,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,69; 68,73</t>
+          <t>-34,91; 76,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>928,25; 2353,0</t>
+          <t>-1,84; 143,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 37,55</t>
+          <t>-6,56; 94,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 33,64</t>
+          <t>7,87; 128,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>475,68; 867,11</t>
+          <t>-17,34; 42,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 38,39</t>
+          <t>-18,26; 41,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 28,22</t>
+          <t>22,89; 105,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>718,4; 1169,87</t>
+          <t>3,69; 62,78</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 53,03</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-12,03; 44,34</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-18,43; 36,6</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>20,72; 101,29</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>9,91; 61,17</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>10,03; 59,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
